--- a/inst/extdata/james_example_multiple_tabs.xlsx
+++ b/inst/extdata/james_example_multiple_tabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdijkstra/Dropbox/cpb/git/james-package/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD4DDE-88E4-7D41-956B-6ABF86A70D08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F68B510-6261-5C47-929C-0C6FF34AE70D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9E6F58C3-28B5-A945-A3C1-97A0DEA814F4}"/>
   </bookViews>
